--- a/examples/analytical/POC1G/model_parameter_template.POC1G.xlsx
+++ b/examples/analytical/POC1G/model_parameter_template.POC1G.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
   <si>
     <t>class</t>
   </si>
@@ -129,9 +129,6 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>porosity as a function of depth</t>
-  </si>
-  <si>
     <t>phi_Inf</t>
   </si>
   <si>
@@ -159,7 +156,7 @@
     <t>cm^2/yr</t>
   </si>
   <si>
-    <t>bioburbation coefficient as a function of depth</t>
+    <t>bioturbation coefficient</t>
   </si>
   <si>
     <t>bioirrigation</t>
@@ -171,7 +168,7 @@
     <t>yr^-1</t>
   </si>
   <si>
-    <t>bioirrigation coefficient as a function of depth</t>
+    <t>bioirrigation coefficient</t>
   </si>
   <si>
     <t>BoundaryCondition</t>
@@ -183,7 +180,7 @@
     <t>mmol cm^-3</t>
   </si>
   <si>
-    <t>Concentration of POC at the TOP of sediment column</t>
+    <t>Concentration of POC at the TOP</t>
   </si>
   <si>
     <t>Reaction</t>
@@ -735,7 +732,7 @@
         <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -749,14 +746,14 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="s">
         <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -764,20 +761,20 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -785,20 +782,20 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
         <v>43</v>
-      </c>
-      <c r="F12" t="s">
-        <v>44</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -806,20 +803,20 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" t="s">
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" t="s">
-        <v>48</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -827,20 +824,20 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" t="s">
         <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>52</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -848,18 +845,18 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
         <v>53</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>54</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G15">
         <v>1</v>
